--- a/data/regime/Freedom House Country Ratings.xlsx
+++ b/data/regime/Freedom House Country Ratings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leosun/Downloads/political data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leosun/Documents/world-data/data/regime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6FCF0AD-5C3D-D548-A2CD-BB58F61FE138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3D1056-B02D-E846-8039-F2CE42B8B8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16860" xr2:uid="{7310560D-7112-D846-BC67-23B944F543AD}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="213">
   <si>
     <t>NF</t>
   </si>
@@ -1131,10 +1131,10 @@
   <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1143,7 +1143,7 @@
     <col min="2" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>212</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>207</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>206</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>205</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>204</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>203</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>202</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>201</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>200</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>199</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>198</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>197</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>196</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>195</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>194</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>193</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>192</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>191</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>190</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>189</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>188</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>187</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>186</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>185</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>184</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>183</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>182</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>181</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>180</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>179</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>178</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>177</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>176</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>175</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>174</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>173</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>172</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>171</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>170</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>169</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>168</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>167</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>166</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>165</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>164</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>163</v>
       </c>
@@ -1801,21 +1801,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>4</v>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>161</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>160</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>159</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>158</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>157</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>156</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>155</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>154</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>153</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>152</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>151</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>150</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>149</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>148</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>147</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>146</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>144</v>
       </c>
@@ -2067,35 +2067,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>4</v>
+      <c r="B67" s="3">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>4</v>
+      <c r="B68" s="3">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>141</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>140</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>139</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>138</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>137</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>136</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>135</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>134</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>133</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>132</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>131</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>130</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>129</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>128</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>127</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>126</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>125</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>124</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>123</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>122</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>120</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>119</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>118</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>117</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>115</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>114</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>113</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>112</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>111</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>110</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>109</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>108</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>107</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>106</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>104</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>103</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>102</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>101</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>100</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>99</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>98</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>97</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>96</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>95</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>94</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>93</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>92</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>91</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>90</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>88</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>87</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>86</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>85</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>84</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>83</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>82</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
         <v>81</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>80</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
         <v>79</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>78</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>77</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>76</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>75</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>74</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>73</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>72</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>70</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>69</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>68</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>67</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>66</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>65</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>64</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>63</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>62</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>61</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>60</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>59</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>58</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>57</v>
       </c>
@@ -3285,21 +3285,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>4</v>
+      <c r="B154" s="3">
+        <v>0</v>
+      </c>
+      <c r="C154" s="3">
+        <v>0</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
         <v>55</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
         <v>54</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
         <v>53</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
         <v>52</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
         <v>51</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
         <v>50</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
         <v>49</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>48</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
         <v>47</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
         <v>46</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
         <v>45</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
         <v>44</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
         <v>43</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
         <v>42</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
         <v>41</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
         <v>40</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
         <v>39</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
         <v>38</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
         <v>37</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
         <v>36</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
         <v>35</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
         <v>34</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
         <v>33</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
         <v>32</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
         <v>31</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
         <v>30</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
         <v>29</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
         <v>28</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
         <v>27</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
         <v>26</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
         <v>25</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
         <v>24</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
         <v>23</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
         <v>22</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
         <v>21</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
         <v>20</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
         <v>19</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
         <v>18</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
         <v>17</v>
       </c>
@@ -3845,21 +3845,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>4</v>
+      <c r="B194" s="3">
+        <v>0</v>
+      </c>
+      <c r="C194" s="3">
+        <v>0</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
         <v>15</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
         <v>14</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
         <v>12</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
         <v>11</v>
       </c>
@@ -3915,35 +3915,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>4</v>
+      <c r="B199" s="3">
+        <v>0</v>
+      </c>
+      <c r="C199" s="3">
+        <v>0</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>4</v>
+      <c r="B200" s="3">
+        <v>0</v>
+      </c>
+      <c r="C200" s="3">
+        <v>0</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
         <v>8</v>
       </c>
@@ -3957,49 +3957,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>4</v>
+      <c r="B202" s="3">
+        <v>0</v>
+      </c>
+      <c r="C202" s="3">
+        <v>0</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>4</v>
+      <c r="B203" s="3">
+        <v>0</v>
+      </c>
+      <c r="C203" s="3">
+        <v>0</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C204" s="3" t="s">
-        <v>4</v>
+      <c r="B204" s="3">
+        <v>0</v>
+      </c>
+      <c r="C204" s="3">
+        <v>0</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
         <v>3</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
         <v>1</v>
       </c>
@@ -4027,265 +4027,265 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" s="2"/>
     </row>
-    <row r="238" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A238" s="2"/>
     </row>
-    <row r="239" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A239" s="2"/>
     </row>
-    <row r="240" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A240" s="2"/>
     </row>
-    <row r="241" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A283" s="2"/>
     </row>
-    <row r="284" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A284" s="2"/>
     </row>
-    <row r="285" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A285" s="2"/>
     </row>
-    <row r="286" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A286" s="2"/>
     </row>
-    <row r="287" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A287" s="2"/>
     </row>
-    <row r="288" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A288" s="2"/>
     </row>
-    <row r="289" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A289" s="2"/>
     </row>
-    <row r="290" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A290" s="2"/>
     </row>
-    <row r="291" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A291" s="2"/>
     </row>
-    <row r="292" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A292" s="2"/>
     </row>
-    <row r="293" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A293" s="2"/>
     </row>
-    <row r="294" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A294" s="2"/>
     </row>
-    <row r="295" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A295" s="2"/>
     </row>
-    <row r="296" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A296" s="2"/>
     </row>
-    <row r="297" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A297" s="2"/>
     </row>
-    <row r="298" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A298" s="2"/>
     </row>
-    <row r="299" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A299" s="2"/>
     </row>
-    <row r="300" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A300" s="2"/>
     </row>
-    <row r="301" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A301" s="2"/>
     </row>
-    <row r="302" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A302" s="2"/>
     </row>
-    <row r="303" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A303" s="2"/>
     </row>
-    <row r="304" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A304" s="2"/>
     </row>
-    <row r="305" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A305" s="2"/>
     </row>
-    <row r="306" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A306" s="2"/>
     </row>
-    <row r="307" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A307" s="2"/>
     </row>
-    <row r="308" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A308" s="2"/>
     </row>
-    <row r="309" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A309" s="2"/>
     </row>
-    <row r="310" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A310" s="2"/>
     </row>
-    <row r="311" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A311" s="2"/>
     </row>
-    <row r="312" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A312" s="2"/>
     </row>
-    <row r="313" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A313" s="2"/>
     </row>
-    <row r="314" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A314" s="2"/>
     </row>
-    <row r="315" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A315" s="2"/>
     </row>
-    <row r="316" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A316" s="2"/>
     </row>
-    <row r="317" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A317" s="2"/>
     </row>
-    <row r="318" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A318" s="2"/>
     </row>
-    <row r="319" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A319" s="2"/>
     </row>
-    <row r="320" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A320" s="2"/>
     </row>
-    <row r="321" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A321" s="2"/>
     </row>
-    <row r="322" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A322" s="2"/>
     </row>
-    <row r="323" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A323" s="2"/>
     </row>
   </sheetData>
